--- a/7.33e/calc3.xlsx
+++ b/7.33e/calc3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>属性</t>
   </si>
@@ -70,6 +70,9 @@
     <t>MovementSpeed</t>
   </si>
   <si>
+    <t>转180°时间</t>
+  </si>
+  <si>
     <t>MovementTurnRate</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>"VisionNighttimeRange"</t>
   </si>
   <si>
+    <t>伤害/增益/概率</t>
+  </si>
+  <si>
     <t>%0F</t>
   </si>
   <si>
@@ -112,35 +118,90 @@
     <t>AGRS4</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷却</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔耗</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反应</t>
+    </r>
+  </si>
+  <si>
     <t>天赋</t>
   </si>
   <si>
     <t>AGRS</t>
   </si>
   <si>
+    <t>BountyXP</t>
+  </si>
+  <si>
+    <t>BountyGoldMin</t>
+  </si>
+  <si>
+    <t>BountyGoldMax</t>
+  </si>
+  <si>
     <t>经验/金钱</t>
-  </si>
-  <si>
-    <t>BountyXP</t>
-  </si>
-  <si>
-    <t>BountyGoldMin</t>
-  </si>
-  <si>
-    <t>BountyGoldMax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,14 +248,14 @@
       <b/>
       <u/>
       <sz val="8"/>
-      <color rgb="FF00B050"/>
+      <color theme="4"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FF00B050"/>
+      <color theme="4"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -240,6 +301,21 @@
       <b/>
       <sz val="8"/>
       <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -758,10 +834,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,37 +846,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,98 +879,104 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,13 +1001,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -973,35 +1052,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1009,19 +1088,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1030,31 +1118,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1376,10 +1467,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L44"/>
+  <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16" customHeight="1"/>
@@ -1412,18 +1503,18 @@
         <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="6">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="E3" s="7">
         <f>ROUNDDOWN(C3*D3,0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="6">
         <f>E3-C3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
@@ -1431,18 +1522,18 @@
         <v>6</v>
       </c>
       <c r="C4" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="E4" s="7">
         <f>ROUNDDOWN(C4*D4,0)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F18" si="0">E4-C4</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
@@ -1452,16 +1543,16 @@
       <c r="C5" s="9">
         <v>1.7</v>
       </c>
-      <c r="D5" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="11">
         <f>ROUNDDOWN(C5*D5,1)</f>
-        <v>1.2</v>
-      </c>
-      <c r="F5" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
@@ -1469,50 +1560,50 @@
         <v>8</v>
       </c>
       <c r="C6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="11">
         <f>ROUNDDOWN(C6*D6,2)</f>
-        <v>0.22</v>
-      </c>
-      <c r="F6" s="6">
+        <v>0.28</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>-0.08</v>
+        <v>-0.07</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:6">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12">
-        <v>150</v>
+      <c r="C7" s="13">
+        <v>200</v>
       </c>
       <c r="D7" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="E7" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="E7" s="14">
         <f>ROUNDDOWN(C7*D7,0)</f>
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="E8" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="E8" s="14">
         <f t="shared" ref="E6:E16" si="1">ROUNDDOWN(C8*D8,1)</f>
         <v>0</v>
       </c>
@@ -1531,589 +1622,600 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15">
-        <v>23</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="C9" s="16">
+        <v>21</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="E9" s="18">
         <f>ROUNDDOWN(C9*D9,0)</f>
-        <v>28</v>
-      </c>
-      <c r="F9" s="16">
+        <v>25</v>
+      </c>
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
+        <v>4</v>
+      </c>
+      <c r="G9" s="19">
         <f t="shared" ref="G9:G13" si="2">C9+C10*29</f>
-        <v>110</v>
-      </c>
-      <c r="H9" s="18">
+        <v>87.7</v>
+      </c>
+      <c r="H9" s="19">
         <f t="shared" ref="H9:H13" si="3">E9+E10*29</f>
-        <v>135.3</v>
-      </c>
-      <c r="I9" s="41">
+        <v>103.3</v>
+      </c>
+      <c r="I9" s="45">
         <f>H9-G9</f>
-        <v>25.3</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:6">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15">
-        <v>3</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="C10" s="16">
+        <v>2.3</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="E10" s="18">
         <f t="shared" si="1"/>
-        <v>3.7</v>
-      </c>
-      <c r="F10" s="16">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:9">
-      <c r="B11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="20">
-        <v>20</v>
-      </c>
-      <c r="D11" s="21">
-        <v>1.25</v>
-      </c>
-      <c r="E11" s="22">
-        <f>ROUNDDOWN(C11*D11,0)</f>
-        <v>25</v>
-      </c>
-      <c r="F11" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G11" s="23">
-        <f t="shared" si="2"/>
-        <v>72.2</v>
-      </c>
-      <c r="H11" s="23">
-        <f t="shared" si="3"/>
-        <v>88.8</v>
-      </c>
-      <c r="I11" s="41">
-        <f>H11-G11</f>
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:6">
-      <c r="B12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="20">
-        <v>1.8</v>
-      </c>
-      <c r="D12" s="21">
-        <v>1.25</v>
-      </c>
-      <c r="E12" s="22">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
-      </c>
-      <c r="F12" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
+    <row r="11" customHeight="1" spans="2:9">
+      <c r="B11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="21">
+        <v>19</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="E11" s="23">
+        <f>ROUNDDOWN(C11*D11,0)</f>
+        <v>22</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="24">
+        <f t="shared" si="2"/>
+        <v>82.8</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="3"/>
+        <v>97.4</v>
+      </c>
+      <c r="I11" s="45">
+        <f>H11-G11</f>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:6">
+      <c r="B12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2.2</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
     <row r="13" customHeight="1" spans="2:9">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="25">
-        <v>19</v>
-      </c>
-      <c r="D13" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="E13" s="27">
+      <c r="C13" s="26">
+        <v>24</v>
+      </c>
+      <c r="D13" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="E13" s="28">
         <f>ROUNDDOWN(C13*D13,0)</f>
-        <v>23</v>
-      </c>
-      <c r="F13" s="26">
+        <v>28</v>
+      </c>
+      <c r="F13" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="29">
         <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
-      <c r="H13" s="28">
+        <v>90.7</v>
+      </c>
+      <c r="H13" s="29">
         <f t="shared" si="3"/>
-        <v>75.2</v>
-      </c>
-      <c r="I13" s="41">
+        <v>106.3</v>
+      </c>
+      <c r="I13" s="45">
         <f>H13-G13</f>
-        <v>12.7</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:6">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="E14" s="27">
+      <c r="C14" s="26">
+        <v>2.3</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="E14" s="28">
         <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="F14" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="F14" s="27">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:6">
-      <c r="B15" s="29" t="s">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:9">
+      <c r="B15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="30">
-        <v>315</v>
+      <c r="C15" s="31">
+        <v>290</v>
       </c>
       <c r="D15" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="E15" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="E15" s="32">
         <f>ROUNDDOWN(C15*D15,0)</f>
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="56">
+        <f>0.03*3.14/E16</f>
+        <v>0.11775</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
-      <c r="B16" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="30">
-        <v>0.9</v>
+      <c r="B16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0.7</v>
       </c>
       <c r="D16" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="E16" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="E16" s="32">
         <f t="shared" si="1"/>
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>19</v>
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33" t="str">
         <f>_xlfn.CONCAT(J16:L16)</f>
-        <v>"1.1"</v>
-      </c>
-      <c r="J16" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="41">
+        <v>"0.8"</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="45">
         <f>E16</f>
-        <v>1.1</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>20</v>
+        <v>0.8</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:12">
-      <c r="B17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="13">
         <v>1800</v>
       </c>
       <c r="D17" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="E17" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="E17" s="13">
         <f>C17*D17</f>
-        <v>2250</v>
+        <v>2160</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35" t="str">
+        <v>360</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36" t="str">
         <f>_xlfn.CONCAT(J17:L17)</f>
-        <v>"2250"</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="41">
+        <v>"2160"</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="45">
         <f>E17</f>
-        <v>2250</v>
-      </c>
-      <c r="L17" s="41" t="s">
-        <v>20</v>
+        <v>2160</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:12">
-      <c r="B18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13">
         <v>800</v>
       </c>
       <c r="D18" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="E18" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="E18" s="13">
         <f>C18*D18</f>
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35" t="str">
+        <v>160</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36" t="str">
         <f>_xlfn.CONCAT(J18:L18)</f>
-        <v>"1000"</v>
-      </c>
-      <c r="J18" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="41">
+        <v>"960"</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="45">
         <f>E18</f>
-        <v>1000</v>
-      </c>
-      <c r="L18" s="41" t="s">
-        <v>20</v>
+        <v>960</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:8">
-      <c r="B20" s="3"/>
+      <c r="B20" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="37" t="s">
+      <c r="F20" s="39" t="s">
         <v>27</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:8">
       <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="38">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="41">
+        <v>40</v>
       </c>
       <c r="D21" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="E21" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="42">
         <f>C21*D21</f>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F21" s="6">
         <f>ROUNDDOWN(E21,0)</f>
-        <v>20</v>
-      </c>
-      <c r="G21" s="39">
+        <v>48</v>
+      </c>
+      <c r="G21" s="43">
         <f>ROUNDDOWN(E21,1)</f>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H21" s="6">
         <f>ROUNDDOWN(E21,2)</f>
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:8">
       <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="38">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="C22" s="41">
+        <v>60</v>
       </c>
       <c r="D22" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="E22" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E22" s="44">
         <f>C22*D22</f>
-        <v>12.5</v>
+        <v>72</v>
       </c>
       <c r="F22" s="6">
         <f>ROUNDDOWN(E22,0)</f>
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G22" s="6">
         <f>ROUNDDOWN(E22,1)</f>
-        <v>12.5</v>
+        <v>72</v>
       </c>
       <c r="H22" s="6">
         <f>ROUNDDOWN(E22,2)</f>
-        <v>12.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:8">
       <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="40">
+        <v>32</v>
+      </c>
+      <c r="C23" s="37">
         <f>C22-C21+C22</f>
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D23" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="E23" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E23" s="44">
         <f>C23*D23</f>
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="F23" s="6">
         <f>ROUNDDOWN(E23,0)</f>
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="G23" s="6">
         <f>ROUNDDOWN(E23,1)</f>
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="H23" s="6">
         <f>ROUNDDOWN(E23,2)</f>
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:8">
       <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="40">
+        <v>33</v>
+      </c>
+      <c r="C24" s="37">
         <f>C23-C22+C23</f>
-        <v>-2</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="E24" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E24" s="44">
         <f>C24*D24</f>
-        <v>-2.5</v>
+        <v>120</v>
       </c>
       <c r="F24" s="6">
         <f>ROUNDDOWN(E24,0)</f>
-        <v>-2</v>
+        <v>120</v>
       </c>
       <c r="G24" s="6">
         <f>ROUNDDOWN(E24,1)</f>
-        <v>-2.5</v>
+        <v>120</v>
       </c>
       <c r="H24" s="6">
         <f>ROUNDDOWN(E24,2)</f>
-        <v>-2.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="5:8">
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="29" t="str">
         <f>CONCATENATE(CONCATENATE(E21," ",E22," "),CONCATENATE(E23," ",E24))</f>
-        <v>20 12.5 5 -2.5</v>
-      </c>
-      <c r="F25" s="41" t="str">
+        <v>48 72 96 120</v>
+      </c>
+      <c r="F25" s="45" t="str">
         <f>CONCATENATE(CONCATENATE(F21," ",F22," "),CONCATENATE(F23," ",F24))</f>
-        <v>20 12 5 -2</v>
-      </c>
-      <c r="G25" s="41" t="str">
+        <v>48 72 96 120</v>
+      </c>
+      <c r="G25" s="45" t="str">
         <f>CONCATENATE(CONCATENATE(G21," ",G22," "),CONCATENATE(G23," ",G24))</f>
-        <v>20 12.5 5 -2.5</v>
-      </c>
-      <c r="H25" s="41" t="str">
+        <v>48 72 96 120</v>
+      </c>
+      <c r="H25" s="45" t="str">
         <f>CONCATENATE(CONCATENATE(H21," ",H22," "),CONCATENATE(H23," ",H24))</f>
-        <v>20 12.5 5 -2.5</v>
+        <v>48 72 96 120</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:8">
-      <c r="B27" s="3"/>
+      <c r="B27" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="37" t="s">
+      <c r="F27" s="39" t="s">
         <v>27</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:8">
       <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="38">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="C28" s="41">
+        <v>1.25</v>
       </c>
       <c r="D28" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E28" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E28" s="44">
         <f>C28*D28</f>
-        <v>1.5</v>
-      </c>
-      <c r="F28" s="42">
+        <v>1</v>
+      </c>
+      <c r="F28" s="46">
         <f>ROUNDDOWN(E28,0)</f>
         <v>1</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="45">
         <f>ROUNDDOWN(E28,1)</f>
-        <v>1.5</v>
-      </c>
-      <c r="H28" s="41">
+        <v>1</v>
+      </c>
+      <c r="H28" s="45">
         <f>ROUNDDOWN(E28,2)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:8">
       <c r="B29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="38">
-        <v>125</v>
+        <v>31</v>
+      </c>
+      <c r="C29" s="41">
+        <v>23</v>
       </c>
       <c r="D29" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E29" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E29" s="44">
         <f>C29*D29</f>
-        <v>93.75</v>
-      </c>
-      <c r="F29" s="42">
+        <v>18.4</v>
+      </c>
+      <c r="F29" s="46">
         <f>ROUNDDOWN(E29,0)</f>
-        <v>93</v>
-      </c>
-      <c r="G29" s="41">
+        <v>18</v>
+      </c>
+      <c r="G29" s="45">
         <f>ROUNDDOWN(E29,1)</f>
-        <v>93.7</v>
-      </c>
-      <c r="H29" s="41">
+        <v>18.4</v>
+      </c>
+      <c r="H29" s="45">
         <f>ROUNDDOWN(E29,2)</f>
-        <v>93.75</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:8">
       <c r="B30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="40">
+        <v>32</v>
+      </c>
+      <c r="C30" s="37">
         <f>C29-C28+C29</f>
-        <v>248</v>
+        <v>44.75</v>
       </c>
       <c r="D30" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E30" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E30" s="44">
         <f>C30*D30</f>
-        <v>186</v>
-      </c>
-      <c r="F30" s="42">
+        <v>35.8</v>
+      </c>
+      <c r="F30" s="46">
         <f>ROUNDDOWN(E30,0)</f>
-        <v>186</v>
-      </c>
-      <c r="G30" s="41">
+        <v>35</v>
+      </c>
+      <c r="G30" s="45">
         <f>ROUNDDOWN(E30,1)</f>
-        <v>186</v>
-      </c>
-      <c r="H30" s="41">
+        <v>35.8</v>
+      </c>
+      <c r="H30" s="45">
         <f>ROUNDDOWN(E30,2)</f>
-        <v>186</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:8">
       <c r="B31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="40">
+        <v>33</v>
+      </c>
+      <c r="C31" s="37">
         <f>C30-C29+C30</f>
-        <v>371</v>
+        <v>66.5</v>
       </c>
       <c r="D31" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E31" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E31" s="44">
         <f>C31*D31</f>
-        <v>278.25</v>
-      </c>
-      <c r="F31" s="42">
+        <v>53.2</v>
+      </c>
+      <c r="F31" s="46">
         <f>ROUNDDOWN(E31,0)</f>
-        <v>278</v>
-      </c>
-      <c r="G31" s="41">
+        <v>53</v>
+      </c>
+      <c r="G31" s="45">
         <f>ROUNDDOWN(E31,1)</f>
-        <v>278.2</v>
-      </c>
-      <c r="H31" s="41">
+        <v>53.2</v>
+      </c>
+      <c r="H31" s="45">
         <f>ROUNDDOWN(E31,2)</f>
-        <v>278.25</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:8">
       <c r="B32" s="3"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="9" t="str">
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="44" t="str">
         <f t="shared" ref="E32:H32" si="4">CONCATENATE(CONCATENATE(E28," ",E29," "),CONCATENATE(E30," ",E31))</f>
-        <v>1.5 93.75 186 278.25</v>
-      </c>
-      <c r="F32" s="42" t="str">
+        <v>1 18.4 35.8 53.2</v>
+      </c>
+      <c r="F32" s="46" t="str">
         <f t="shared" si="4"/>
-        <v>1 93 186 278</v>
-      </c>
-      <c r="G32" s="41" t="str">
+        <v>1 18 35 53</v>
+      </c>
+      <c r="G32" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>1.5 93.7 186 278.2</v>
-      </c>
-      <c r="H32" s="41" t="str">
+        <v>1 18.4 35.8 53.2</v>
+      </c>
+      <c r="H32" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>1.5 93.75 186 278.25</v>
+        <v>1 18.4 35.8 53.2</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:8">
       <c r="B34" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>1</v>
@@ -2121,188 +2223,186 @@
       <c r="D34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" customHeight="1" spans="2:8">
       <c r="B35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="40">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C35" s="37">
+        <v>475</v>
       </c>
       <c r="D35" s="6">
         <v>2</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="44">
         <f>C35*D35</f>
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="46"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="50"/>
     </row>
     <row r="36" customHeight="1" spans="4:5">
-      <c r="D36" s="41"/>
-      <c r="E36" s="47"/>
-    </row>
-    <row r="37" customHeight="1" spans="2:2">
-      <c r="B37" s="1" t="s">
+      <c r="D36" s="45"/>
+      <c r="E36" s="51"/>
+    </row>
+    <row r="37" customHeight="1" spans="2:7">
+      <c r="B37" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="53">
+        <v>69</v>
+      </c>
+      <c r="D37" s="53">
+        <v>22</v>
+      </c>
+      <c r="E37" s="53">
+        <v>57</v>
+      </c>
+      <c r="F37" s="53">
+        <v>25</v>
+      </c>
+      <c r="G37" s="53">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:7">
+      <c r="B38" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="53">
+        <v>43</v>
+      </c>
+      <c r="D38" s="53">
+        <v>19</v>
+      </c>
+      <c r="E38" s="53">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:7">
-      <c r="B38" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="49">
-        <v>69</v>
-      </c>
-      <c r="D38" s="49">
+      <c r="F38" s="53">
+        <v>20</v>
+      </c>
+      <c r="G38" s="53">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:7">
+      <c r="B39" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="53">
+        <v>52</v>
+      </c>
+      <c r="D39" s="53">
+        <v>25</v>
+      </c>
+      <c r="E39" s="53">
+        <v>39</v>
+      </c>
+      <c r="F39" s="53">
+        <v>26</v>
+      </c>
+      <c r="G39" s="53">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:4">
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="54">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:7">
+      <c r="B41" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="29">
+        <f>ROUNDDOWN(C37*$D$40,0)</f>
+        <v>82</v>
+      </c>
+      <c r="D41" s="29">
+        <f>ROUNDDOWN(D37*$D$40,0)</f>
+        <v>26</v>
+      </c>
+      <c r="E41" s="29">
+        <f>ROUNDDOWN(E37*$D$40,0)</f>
+        <v>68</v>
+      </c>
+      <c r="F41" s="29">
+        <f>ROUNDDOWN(F37*$D$40,0)</f>
+        <v>30</v>
+      </c>
+      <c r="G41" s="29">
+        <f>ROUNDDOWN(G37*$D$40,0)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:7">
+      <c r="B42" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="29">
+        <f>ROUNDDOWN(C38*$D$40,0)</f>
+        <v>51</v>
+      </c>
+      <c r="D42" s="29">
+        <f>ROUNDDOWN(D38*$D$40,0)</f>
         <v>22</v>
       </c>
-      <c r="E38" s="49">
-        <v>57</v>
-      </c>
-      <c r="F38" s="49">
-        <v>25</v>
-      </c>
-      <c r="G38" s="49">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:7">
-      <c r="B39" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="49">
-        <v>43</v>
-      </c>
-      <c r="D39" s="49">
-        <v>19</v>
-      </c>
-      <c r="E39" s="49">
-        <v>34</v>
-      </c>
-      <c r="F39" s="49">
-        <v>20</v>
-      </c>
-      <c r="G39" s="49">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:7">
-      <c r="B40" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="49">
-        <v>52</v>
-      </c>
-      <c r="D40" s="49">
-        <v>25</v>
-      </c>
-      <c r="E40" s="49">
+      <c r="E42" s="29">
+        <f>ROUNDDOWN(E38*$D$40,0)</f>
+        <v>40</v>
+      </c>
+      <c r="F42" s="29">
+        <f>ROUNDDOWN(F38*$D$40,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G42" s="29">
+        <f>ROUNDDOWN(G38*$D$40,0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:7">
+      <c r="B43" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="49">
-        <v>26</v>
-      </c>
-      <c r="G40" s="49">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:4">
-      <c r="C41" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="50">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="2:7">
-      <c r="B42" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="28">
-        <f>ROUNDDOWN(C38*$D$41,0)</f>
-        <v>172</v>
-      </c>
-      <c r="D42" s="28">
-        <f>ROUNDDOWN(D38*$D$41,0)</f>
-        <v>55</v>
-      </c>
-      <c r="E42" s="28">
-        <f>ROUNDDOWN(E38*$D$41,0)</f>
-        <v>142</v>
-      </c>
-      <c r="F42" s="28">
-        <f>ROUNDDOWN(F38*$D$41,0)</f>
+      <c r="C43" s="29">
+        <f>ROUNDDOWN(C39*$D$40,0)</f>
         <v>62</v>
       </c>
-      <c r="G42" s="28">
-        <f>ROUNDDOWN(G38*$D$41,0)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="2:7">
-      <c r="B43" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="28">
-        <f>ROUNDDOWN(C39*$D$41,0)</f>
-        <v>107</v>
-      </c>
-      <c r="D43" s="28">
-        <f>ROUNDDOWN(D39*$D$41,0)</f>
-        <v>47</v>
-      </c>
-      <c r="E43" s="28">
-        <f>ROUNDDOWN(E39*$D$41,0)</f>
-        <v>85</v>
-      </c>
-      <c r="F43" s="28">
-        <f>ROUNDDOWN(F39*$D$41,0)</f>
-        <v>50</v>
-      </c>
-      <c r="G43" s="28">
-        <f>ROUNDDOWN(G39*$D$41,0)</f>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:7">
-      <c r="B44" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="28">
-        <f>ROUNDDOWN(C40*$D$41,0)</f>
-        <v>130</v>
-      </c>
-      <c r="D44" s="28">
-        <f>ROUNDDOWN(D40*$D$41,0)</f>
-        <v>62</v>
-      </c>
-      <c r="E44" s="28">
-        <f>ROUNDDOWN(E40*$D$41,0)</f>
-        <v>97</v>
-      </c>
-      <c r="F44" s="28">
-        <f>ROUNDDOWN(F40*$D$41,0)</f>
-        <v>65</v>
-      </c>
-      <c r="G44" s="28">
-        <f>ROUNDDOWN(G40*$D$41,0)</f>
-        <v>180</v>
+      <c r="D43" s="29">
+        <f>ROUNDDOWN(D39*$D$40,0)</f>
+        <v>30</v>
+      </c>
+      <c r="E43" s="29">
+        <f>ROUNDDOWN(E39*$D$40,0)</f>
+        <v>46</v>
+      </c>
+      <c r="F43" s="29">
+        <f>ROUNDDOWN(F39*$D$40,0)</f>
+        <v>31</v>
+      </c>
+      <c r="G43" s="29">
+        <f>ROUNDDOWN(G39*$D$40,0)</f>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="E6 E8:E15" formula="1"/>
+    <ignoredError sqref="E8:E15 E6" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>